--- a/uploads/BSIT1-B.xlsx
+++ b/uploads/BSIT1-B.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TOSD\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp7.4\htdocs\ICC_STUDENT_PORTAL\uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F10F546-37B4-45C8-B3E5-0EEDEA9DBA32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1140" windowWidth="21600" windowHeight="11220"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Student Number</t>
   </si>
@@ -47,13 +48,19 @@
     <t>Year Level</t>
   </si>
   <si>
-    <t>0002-0000</t>
+    <t>0001-0000</t>
+  </si>
+  <si>
+    <t>0004-0000</t>
+  </si>
+  <si>
+    <t>0005-0000</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -473,11 +480,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="117" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -514,10 +521,14 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
+      <c r="A3" s="4" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
+      <c r="A4" s="4" t="s">
+        <v>9</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -527,20 +538,20 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="3f06cf47-f4ec-41cf-b18d-cd4ccef3ffc6" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="3f06cf47-f4ec-41cf-b18d-cd4ccef3ffc6" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -777,14 +788,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0CD1AC1B-644F-48C9-ACE9-EBA40A9E149E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5E4FB31D-5B14-4768-88FE-3658C4DCD67E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -797,6 +800,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0CD1AC1B-644F-48C9-ACE9-EBA40A9E149E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
